--- a/ConversionExcelExecutor/ConversionExcelExecutor/設定Excel.xlsx
+++ b/ConversionExcelExecutor/ConversionExcelExecutor/設定Excel.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoike\source\repos\ih4bb7\ConversionExcel\ConversionExcel\ConversionExcel\Executor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF2961F-9FF3-4820-AF74-4CB142615A92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072D878-8536-4595-97A5-1ADDB13AB697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{09F07E79-C147-42E4-BB17-1C0D8FBA18E9}"/>
   </bookViews>
   <sheets>
     <sheet name="処理説明" sheetId="3" r:id="rId1"/>
@@ -26,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
-  <si>
-    <t>読込Excel</t>
-  </si>
-  <si>
-    <t>出力Excel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>処理内容</t>
   </si>
@@ -83,6 +72,26 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>読み込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込みExcel</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -238,17 +247,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE259BA-6D0D-4055-8378-511FAAB91ABF}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -578,62 +587,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -648,45 +657,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459B36B-FC7E-40B1-84B4-83B5A053A9FD}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.796875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -695,10 +704,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -707,30 +716,30 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
